--- a/Training_attendance_sheet.xlsx
+++ b/Training_attendance_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\new\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\oracle-apex\Training\mne-APEX-training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{969DD559-C2CF-45C4-90D2-9C2C4E1674D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1851B1CF-1074-4DD5-949A-35230BBF02F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
@@ -21,23 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>TRAINING INFORMATION</t>
   </si>
@@ -91,6 +80,18 @@
   </si>
   <si>
     <t>يعقوب أبو سرور</t>
+  </si>
+  <si>
+    <t>Oracle APEX 22.2</t>
+  </si>
+  <si>
+    <t>Abdulrahman baninemra</t>
+  </si>
+  <si>
+    <t>Ministry of National Economy</t>
+  </si>
+  <si>
+    <t>from 09:00 am to 01:00 pm</t>
   </si>
 </sst>
 </file>
@@ -299,13 +300,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -318,34 +348,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -776,84 +795,84 @@
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="20"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="20"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="20"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="5"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="20"/>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -870,79 +889,79 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="8" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="18">
+      <c r="H8" s="5"/>
+      <c r="I8" s="12">
         <f>COUNTIF(D11:E46,"YES")</f>
         <v>0</v>
       </c>
-      <c r="J8" s="10"/>
+      <c r="J8" s="5"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="16"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="11"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="16"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="19">
+      <c r="H10" s="5"/>
+      <c r="I10" s="17">
         <f>COUNTIF(D11:E46,"NO")</f>
         <v>0</v>
       </c>
-      <c r="J10" s="13"/>
+      <c r="J10" s="8"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="10"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="13"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -951,222 +970,222 @@
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="16"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="11"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="5"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="20"/>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="10"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5"/>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="13"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="13"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="16"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="11"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="13"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="8"/>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="10"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="13"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="13"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="8"/>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="16"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8"/>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="10"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="13"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="8"/>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="13"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="13"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="8"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="16"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="11"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="13"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="8"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="10"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="5"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="13"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="8"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="13"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="13"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="8"/>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="16"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="11"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="11"/>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="10"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="5"/>
       <c r="F26" s="2"/>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="16"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="11"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="10"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="5"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1175,11 +1194,11 @@
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="13"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1188,11 +1207,11 @@
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="16"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1201,11 +1220,11 @@
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="10"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="5"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1214,11 +1233,11 @@
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="13"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="8"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1227,11 +1246,11 @@
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="16"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="11"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1240,11 +1259,11 @@
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="10"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="5"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1253,11 +1272,11 @@
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="13"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="8"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -1266,11 +1285,11 @@
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="16"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="11"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -1279,11 +1298,11 @@
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="10"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="5"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -1292,11 +1311,11 @@
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="13"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="8"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -1305,11 +1324,11 @@
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="16"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="11"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -1318,11 +1337,11 @@
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="10"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="5"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -1331,11 +1350,11 @@
       <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="13"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="8"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -1344,11 +1363,11 @@
       <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="16"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="11"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -1357,11 +1376,11 @@
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="10"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="5"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -1370,11 +1389,11 @@
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="13"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="8"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -1383,11 +1402,11 @@
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="16"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="11"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -1397,19 +1416,30 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A44:C46"/>
-    <mergeCell ref="D44:E46"/>
-    <mergeCell ref="A35:C37"/>
-    <mergeCell ref="D35:E37"/>
-    <mergeCell ref="A38:C40"/>
-    <mergeCell ref="D38:E40"/>
-    <mergeCell ref="A41:C43"/>
-    <mergeCell ref="D41:E43"/>
-    <mergeCell ref="A26:C28"/>
-    <mergeCell ref="D26:E28"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="A29:C31"/>
-    <mergeCell ref="D29:E31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="A8:C10"/>
+    <mergeCell ref="D8:E10"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="A11:C13"/>
+    <mergeCell ref="D11:E13"/>
+    <mergeCell ref="G13:J13"/>
     <mergeCell ref="A32:C34"/>
     <mergeCell ref="D32:E34"/>
     <mergeCell ref="A14:C16"/>
@@ -1421,38 +1451,27 @@
     <mergeCell ref="D20:E22"/>
     <mergeCell ref="A23:C25"/>
     <mergeCell ref="D23:E25"/>
-    <mergeCell ref="A8:C10"/>
-    <mergeCell ref="D8:E10"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="A11:C13"/>
-    <mergeCell ref="D11:E13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="A26:C28"/>
+    <mergeCell ref="D26:E28"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="A29:C31"/>
+    <mergeCell ref="D29:E31"/>
+    <mergeCell ref="A44:C46"/>
+    <mergeCell ref="D44:E46"/>
+    <mergeCell ref="A35:C37"/>
+    <mergeCell ref="D35:E37"/>
+    <mergeCell ref="A38:C40"/>
+    <mergeCell ref="D38:E40"/>
+    <mergeCell ref="A41:C43"/>
+    <mergeCell ref="D41:E43"/>
   </mergeCells>
   <conditionalFormatting sqref="D11:E46">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:E46">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1465,8 +1484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:J25"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,84 +1504,96 @@
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="20"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="19"/>
+      <c r="J4" s="20"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="23">
+        <v>45067</v>
+      </c>
+      <c r="I5" s="24"/>
+      <c r="J5" s="25"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="5"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="27"/>
+      <c r="J6" s="28"/>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1579,77 +1610,77 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="8" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="18">
+      <c r="H8" s="5"/>
+      <c r="I8" s="12">
         <f>COUNTIF(D11:E46,"YES")</f>
         <v>0</v>
       </c>
-      <c r="J8" s="10"/>
+      <c r="J8" s="5"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="16"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="11"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="16"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="19">
+      <c r="H10" s="5"/>
+      <c r="I10" s="17">
         <f>COUNTIF(D11:E46,"NO")</f>
         <v>0</v>
       </c>
-      <c r="J10" s="13"/>
+      <c r="J10" s="8"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="10"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="13"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1658,212 +1689,212 @@
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="16"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="11"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="5"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="20"/>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="10"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5"/>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="13"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="13"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="16"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="11"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="13"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="8"/>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="10"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="13"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="13"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="8"/>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="16"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8"/>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="10"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="13"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="8"/>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="13"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="13"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="8"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="16"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="11"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="13"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="8"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="10"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="5"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="13"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="8"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="13"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="13"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="8"/>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="16"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="11"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="11"/>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="10"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="5"/>
       <c r="F26" s="2"/>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="16"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="11"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="10"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="5"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1872,11 +1903,11 @@
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="13"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1885,11 +1916,11 @@
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="16"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1898,11 +1929,11 @@
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="10"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="5"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1911,11 +1942,11 @@
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="13"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="8"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1924,11 +1955,11 @@
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="16"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="11"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1937,11 +1968,11 @@
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="10"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="5"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1950,11 +1981,11 @@
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="13"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="8"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -1963,11 +1994,11 @@
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="16"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="11"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -1976,11 +2007,11 @@
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="10"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="5"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -1989,11 +2020,11 @@
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="13"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="8"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -2002,11 +2033,11 @@
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="16"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="11"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -2015,11 +2046,11 @@
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="10"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="5"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -2028,11 +2059,11 @@
       <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="13"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="8"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -2041,11 +2072,11 @@
       <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="16"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="11"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -2054,11 +2085,11 @@
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="10"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="5"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -2067,11 +2098,11 @@
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="13"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="8"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -2080,11 +2111,11 @@
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="16"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="11"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -2094,14 +2125,30 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A44:C46"/>
-    <mergeCell ref="D44:E46"/>
-    <mergeCell ref="A35:C37"/>
-    <mergeCell ref="D35:E37"/>
-    <mergeCell ref="A38:C40"/>
-    <mergeCell ref="D38:E40"/>
-    <mergeCell ref="A41:C43"/>
-    <mergeCell ref="D41:E43"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="A8:C10"/>
+    <mergeCell ref="D8:E10"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="A11:C13"/>
+    <mergeCell ref="D11:E13"/>
+    <mergeCell ref="G13:J13"/>
     <mergeCell ref="A32:C34"/>
     <mergeCell ref="D32:E34"/>
     <mergeCell ref="A14:C16"/>
@@ -2118,42 +2165,27 @@
     <mergeCell ref="F27:J27"/>
     <mergeCell ref="A29:C31"/>
     <mergeCell ref="D29:E31"/>
-    <mergeCell ref="A8:C10"/>
-    <mergeCell ref="D8:E10"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="A11:C13"/>
-    <mergeCell ref="D11:E13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="A44:C46"/>
+    <mergeCell ref="D44:E46"/>
+    <mergeCell ref="A35:C37"/>
+    <mergeCell ref="D35:E37"/>
+    <mergeCell ref="A38:C40"/>
+    <mergeCell ref="D38:E40"/>
+    <mergeCell ref="A41:C43"/>
+    <mergeCell ref="D41:E43"/>
   </mergeCells>
   <conditionalFormatting sqref="D11:E46">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:E46">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>